--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\git\school_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1725EAC-BC7C-45E9-A9D2-A43E313AE317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EB76B4-AE17-4456-810D-DDEF314BE3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
+    <workbookView xWindow="5430" yWindow="3495" windowWidth="21585" windowHeight="11385" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Naam student 2:</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Opstart project:  inloggen met de databank (MYSQL)</t>
+  </si>
+  <si>
+    <t>Klassen aanmaken en vervolgens automatisch aanmaken in de databank</t>
   </si>
 </sst>
 </file>
@@ -469,12 +472,12 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="61.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
@@ -510,7 +513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -537,9 +540,15 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45288</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\git\school_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EB76B4-AE17-4456-810D-DDEF314BE3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65998DE0-46DB-4E5A-AA54-EC8039C84F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5430" yWindow="3495" windowWidth="21585" windowHeight="11385" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Naam student 2:</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Klassen aanmaken en vervolgens automatisch aanmaken in de databank</t>
+  </si>
+  <si>
+    <t>Weergeven van score op toetsen pagina per student</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -513,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -527,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -552,9 +555,15 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45289</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\git\school_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65998DE0-46DB-4E5A-AA54-EC8039C84F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED99F890-0881-4BC5-8A48-980EC3F6DADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="3495" windowWidth="21585" windowHeight="11385" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,7 +475,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -562,7 +562,7 @@
         <v>45289</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7"/>
     </row>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\git\school_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED99F890-0881-4BC5-8A48-980EC3F6DADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883EA497-C19E-4232-862D-E50F2DD24D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Naam student 2:</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Weergeven van score op toetsen pagina per student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scores toevoegen en wijzigen door leerkracht(opeens error bij het inserten van scores) </t>
   </si>
 </sst>
 </file>
@@ -474,13 +477,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EF922A-C188-1F43-B267-5D771EC01B6B}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
@@ -567,9 +570,15 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45290</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8</v>
+      </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\git\school_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deleu\Documents\unif\Master\ApplicatieArchitectuur\Project\school_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883EA497-C19E-4232-862D-E50F2DD24D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F07C238-4200-4594-9199-85DAEE9B0B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="15800" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Naam student 2:</t>
   </si>
@@ -70,6 +72,30 @@
   </si>
   <si>
     <t xml:space="preserve">Scores toevoegen en wijzigen door leerkracht(opeens error bij het inserten van scores) </t>
+  </si>
+  <si>
+    <t>Model maken van boodschap en boodschap link. Verbinden met databank</t>
+  </si>
+  <si>
+    <t>Gebruiker klasse geïmplementeerd</t>
+  </si>
+  <si>
+    <t>Berichten lijst kunnen oproepen</t>
+  </si>
+  <si>
+    <t>Webpagina voor publieke berichten</t>
+  </si>
+  <si>
+    <t>Webpagina voor leerling berichten</t>
+  </si>
+  <si>
+    <t>Webpagina voor leerkracht berichten</t>
+  </si>
+  <si>
+    <t>Webpagina voor berichten toe te voegen</t>
+  </si>
+  <si>
+    <t>Webpagina bericht verwijderen</t>
   </si>
 </sst>
 </file>
@@ -162,8 +188,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -179,9 +205,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,7 +245,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -325,7 +351,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,21 +501,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EF922A-C188-1F43-B267-5D771EC01B6B}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="73.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.7" x14ac:dyDescent="0.35">
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
@@ -497,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
@@ -505,7 +531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -519,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -533,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -545,7 +571,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -557,7 +583,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -569,7 +595,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -581,281 +607,331 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45294</v>
+      </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45294</v>
+      </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45294</v>
+      </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45295</v>
+      </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45295</v>
+      </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
+      <c r="D13" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45295</v>
+      </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45295</v>
+      </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
+      <c r="D15" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45295</v>
+      </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D57" s="3"/>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deleu\Documents\unif\Master\ApplicatieArchitectuur\Project\school_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F07C238-4200-4594-9199-85DAEE9B0B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4CE258-B9DF-41B6-9849-A16416939024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="15800" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Naam student 2:</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>Webpagina bericht verwijderen</t>
+  </si>
+  <si>
+    <t>REST API's en nog wat aanpassingen</t>
+  </si>
+  <si>
+    <t>Probleem met databank</t>
+  </si>
+  <si>
+    <t>Aanpassen Login</t>
+  </si>
+  <si>
+    <t>Totale Code Opkuisen en verbeteren</t>
   </si>
 </sst>
 </file>
@@ -133,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -165,12 +177,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -186,6 +344,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -504,7 +678,7 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
@@ -595,139 +769,163 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="12">
         <v>45290</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="13">
         <v>8</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="18">
         <v>45294</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="6">
         <v>45294</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="D10" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="24">
         <v>45294</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7">
+      <c r="C11" s="25"/>
+      <c r="D11" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="18">
         <v>45295</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="6">
         <v>45295</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="7">
+      <c r="D13" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="6">
         <v>45295</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="7">
+      <c r="D14" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="6">
         <v>45295</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7">
+      <c r="D15" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="24">
         <v>45295</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="C16" s="25"/>
+      <c r="D16" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
+        <v>45297</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16">
+        <v>3</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45297</v>
+      </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45297</v>
+      </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45297</v>
+      </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deleu\Documents\unif\Master\ApplicatieArchitectuur\Project\school_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\git\school_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4CE258-B9DF-41B6-9849-A16416939024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F732579-23BD-49F6-9CC2-8309FEF66609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="15800" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Naam student 1:</t>
   </si>
   <si>
-    <t>Dit is een voorbeeld rij. In deze kolom beschrijf je de taak waaraan je gewerkt hebt.</t>
-  </si>
-  <si>
     <t>Taak</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
     <t>Weergeven van score op toetsen pagina per student</t>
   </si>
   <si>
-    <t xml:space="preserve">Scores toevoegen en wijzigen door leerkracht(opeens error bij het inserten van scores) </t>
-  </si>
-  <si>
     <t>Model maken van boodschap en boodschap link. Verbinden met databank</t>
   </si>
   <si>
@@ -108,6 +102,12 @@
   </si>
   <si>
     <t>Totale Code Opkuisen en verbeteren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scores toevoegen en wijzigen door leerkracht </t>
   </si>
 </sst>
 </file>
@@ -362,8 +362,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,9 +379,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,7 +419,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -525,7 +525,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -667,7 +667,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,18 +678,18 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="1" max="1" width="73.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
@@ -697,45 +697,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.7" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>44505</v>
-      </c>
-      <c r="C4" s="7">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
       </c>
       <c r="B5" s="6">
         <v>45283</v>
@@ -745,21 +737,21 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="6">
         <v>45288</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6">
         <v>45289</v>
@@ -769,9 +761,9 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B8" s="12">
         <v>45290</v>
@@ -781,9 +773,9 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="18">
         <v>45294</v>
@@ -793,9 +785,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6">
         <v>45294</v>
@@ -805,9 +797,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="24">
         <v>45294</v>
@@ -817,9 +809,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="18">
         <v>45295</v>
@@ -829,9 +821,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <v>45295</v>
@@ -841,9 +833,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6">
         <v>45295</v>
@@ -853,9 +845,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="6">
         <v>45295</v>
@@ -865,9 +857,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="24">
         <v>45295</v>
@@ -877,9 +869,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="15">
         <v>45297</v>
@@ -890,9 +882,9 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6">
         <v>45297</v>
@@ -903,9 +895,9 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6">
         <v>45297</v>
@@ -915,9 +907,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6">
         <v>45297</v>
@@ -927,209 +919,217 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45297</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" s="3"/>
     </row>
   </sheetData>

--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\git\school_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deleu\Documents\unif\Master\ApplicatieArchitectuur\Project\school_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F732579-23BD-49F6-9CC2-8309FEF66609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8112682D-CA9D-4EFE-9019-71A06DFF53ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="15800" xr2:uid="{D5BD8C03-B50E-614E-91C7-1FD0568DB02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Naam student 2:</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">Scores toevoegen en wijzigen door leerkracht </t>
+  </si>
+  <si>
+    <t>Laatste testen en fixes</t>
   </si>
 </sst>
 </file>
@@ -328,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -360,10 +363,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Kop 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -379,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,7 +434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -525,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -667,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,18 +693,18 @@
   <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="73.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.7" x14ac:dyDescent="0.35">
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
@@ -697,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
@@ -705,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -719,13 +734,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -737,7 +752,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -749,7 +764,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -761,7 +776,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -773,7 +788,7 @@
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
@@ -785,7 +800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
@@ -797,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
@@ -809,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
@@ -821,7 +836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
@@ -833,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>15</v>
       </c>
@@ -845,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
@@ -857,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>17</v>
       </c>
@@ -869,267 +884,275 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="30">
         <v>45297</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32">
         <v>3</v>
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="27">
         <v>45297</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7">
+      <c r="C18" s="28"/>
+      <c r="D18" s="34">
         <v>1</v>
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="27">
         <v>45297</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7">
+      <c r="C19" s="28"/>
+      <c r="D19" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="27">
         <v>45297</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
+      <c r="C20" s="28"/>
+      <c r="D20" s="34">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="36">
         <v>45297</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="37">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="15">
+        <v>45298</v>
+      </c>
+      <c r="C22" s="16">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D57" s="3"/>
     </row>
   </sheetData>
